--- a/predict/case1.xlsx
+++ b/predict/case1.xlsx
@@ -361,7 +361,7 @@
         <v>0.35</v>
       </c>
       <c r="C1" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D1" t="n">
         <v>-0.66</v>
@@ -383,13 +383,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="B3" t="n">
         <v>0.41</v>
       </c>
       <c r="C3" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="D3" t="n">
         <v>0.35</v>
@@ -431,7 +431,7 @@
         <v>-0.41</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D6" t="n">
         <v>-0.51</v>
@@ -445,7 +445,7 @@
         <v>-0.59</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="D7" t="n">
         <v>-0.08</v>
@@ -473,7 +473,7 @@
         <v>-0.41</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="D9" t="n">
         <v>-0.23</v>
@@ -487,7 +487,7 @@
         <v>0.35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D10" t="n">
         <v>0.57</v>
@@ -495,13 +495,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.51</v>
+        <v>-0.52</v>
       </c>
       <c r="B11" t="n">
         <v>-0.76</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="D11" t="n">
         <v>-0.08</v>
@@ -515,7 +515,7 @@
         <v>-0.65</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.26</v>
+        <v>-0.24</v>
       </c>
       <c r="D12" t="n">
         <v>-0.51</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.5</v>
+        <v>-0.51</v>
       </c>
       <c r="B13" t="n">
         <v>-0.91</v>
@@ -571,7 +571,7 @@
         <v>-0.18</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="D16" t="n">
         <v>0.11</v>
@@ -579,13 +579,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="B17" t="n">
         <v>0.06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D17" t="n">
         <v>-0.02</v>
@@ -599,7 +599,7 @@
         <v>0.15</v>
       </c>
       <c r="C18" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="D18" t="n">
         <v>0.32</v>
@@ -613,7 +613,7 @@
         <v>-0.18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D19" t="n">
         <v>0.14</v>
@@ -627,7 +627,7 @@
         <v>-0.03</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="D20" t="n">
         <v>-0.08</v>
@@ -641,7 +641,7 @@
         <v>-0.21</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D21" t="n">
         <v>0.48</v>
@@ -655,7 +655,7 @@
         <v>0.09</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D22" t="n">
         <v>0.29</v>
@@ -669,7 +669,7 @@
         <v>-0.41</v>
       </c>
       <c r="C23" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D23" t="n">
         <v>0.02</v>
@@ -697,7 +697,7 @@
         <v>-0.03</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="D25" t="n">
         <v>0.6</v>
@@ -711,7 +711,7 @@
         <v>0.47</v>
       </c>
       <c r="C26" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="D26" t="n">
         <v>0.85</v>
@@ -753,7 +753,7 @@
         <v>-0.12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D29" t="n">
         <v>0.08</v>
@@ -781,7 +781,7 @@
         <v>0.62</v>
       </c>
       <c r="C31" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="D31" t="n">
         <v>0.6899999999999999</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="B33" t="n">
         <v>-0.38</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="D33" t="n">
         <v>-0.23</v>
@@ -823,7 +823,7 @@
         <v>-0.35</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D34" t="n">
         <v>-0.08</v>
@@ -893,7 +893,7 @@
         <v>-0.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.16</v>
+        <v>-0.12</v>
       </c>
       <c r="D39" t="n">
         <v>-0.45</v>
@@ -949,7 +949,7 @@
         <v>-0.06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D43" t="n">
         <v>-0.02</v>
@@ -963,7 +963,7 @@
         <v>-0.24</v>
       </c>
       <c r="C44" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D44" t="n">
         <v>-0.29</v>
@@ -977,7 +977,7 @@
         <v>-0.35</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D45" t="n">
         <v>0.23</v>
@@ -991,7 +991,7 @@
         <v>-0.29</v>
       </c>
       <c r="C46" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="D46" t="n">
         <v>0.26</v>
@@ -1075,7 +1075,7 @@
         <v>0.32</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="D52" t="n">
         <v>0.08</v>
@@ -1089,7 +1089,7 @@
         <v>0.35</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D53" t="n">
         <v>0.42</v>
@@ -1117,7 +1117,7 @@
         <v>-0</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="D55" t="n">
         <v>-0.6899999999999999</v>
@@ -1125,13 +1125,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="B56" t="n">
         <v>0.44</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="D56" t="n">
         <v>0.6899999999999999</v>
@@ -1159,7 +1159,7 @@
         <v>0.09</v>
       </c>
       <c r="C58" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D58" t="n">
         <v>0.14</v>
@@ -1215,7 +1215,7 @@
         <v>-0</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D62" t="n">
         <v>0.29</v>
@@ -1243,7 +1243,7 @@
         <v>0.62</v>
       </c>
       <c r="C64" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D64" t="n">
         <v>0.72</v>
@@ -1257,7 +1257,7 @@
         <v>-0.62</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
       <c r="D65" t="n">
         <v>-0.32</v>
@@ -1285,7 +1285,7 @@
         <v>-0.35</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="D67" t="n">
         <v>0.08</v>
@@ -1313,7 +1313,7 @@
         <v>-0.21</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="D69" t="n">
         <v>-0.51</v>
@@ -1341,7 +1341,7 @@
         <v>0.76</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.1</v>
+        <v>-0.16</v>
       </c>
       <c r="D71" t="n">
         <v>-0.54</v>
@@ -1355,7 +1355,7 @@
         <v>-0.03</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="D72" t="n">
         <v>-0.17</v>
@@ -1397,7 +1397,7 @@
         <v>-0.18</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="D75" t="n">
         <v>0.38</v>
@@ -1453,7 +1453,7 @@
         <v>-0.26</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="D79" t="n">
         <v>-0.45</v>
@@ -1523,7 +1523,7 @@
         <v>0.32</v>
       </c>
       <c r="C84" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="D84" t="n">
         <v>0.51</v>
@@ -1551,7 +1551,7 @@
         <v>0.21</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="D86" t="n">
         <v>0.66</v>
@@ -1593,7 +1593,7 @@
         <v>0.21</v>
       </c>
       <c r="C89" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D89" t="n">
         <v>-0.2</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="B90" t="n">
         <v>-0.5600000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D90" t="n">
         <v>-0.29</v>
@@ -1663,7 +1663,7 @@
         <v>-0.24</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D94" t="n">
         <v>-0.54</v>
@@ -1677,7 +1677,7 @@
         <v>0.26</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D95" t="n">
         <v>0.6</v>
@@ -1733,7 +1733,7 @@
         <v>0.15</v>
       </c>
       <c r="C99" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="D99" t="n">
         <v>0.42</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="B102" t="n">
         <v>0.21</v>
       </c>
       <c r="C102" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D102" t="n">
         <v>0.45</v>
@@ -1817,7 +1817,7 @@
         <v>0.24</v>
       </c>
       <c r="C105" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D105" t="n">
         <v>0.63</v>
@@ -1859,7 +1859,7 @@
         <v>0.15</v>
       </c>
       <c r="C108" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D108" t="n">
         <v>0.38</v>
@@ -1873,7 +1873,7 @@
         <v>0.24</v>
       </c>
       <c r="C109" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="D109" t="n">
         <v>0.32</v>
@@ -1887,7 +1887,7 @@
         <v>-0.62</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D110" t="n">
         <v>-0.26</v>
@@ -1901,7 +1901,7 @@
         <v>-0.5</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.24</v>
+        <v>-0.22</v>
       </c>
       <c r="D111" t="n">
         <v>-0.42</v>
@@ -1915,7 +1915,7 @@
         <v>0.12</v>
       </c>
       <c r="C112" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="D112" t="n">
         <v>0.26</v>
@@ -1943,7 +1943,7 @@
         <v>-0.41</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D114" t="n">
         <v>-0.02</v>
@@ -1957,7 +1957,7 @@
         <v>0.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D115" t="n">
         <v>0.66</v>
@@ -1999,7 +1999,7 @@
         <v>0.41</v>
       </c>
       <c r="C118" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D118" t="n">
         <v>0.57</v>
@@ -2013,7 +2013,7 @@
         <v>-0.26</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="D119" t="n">
         <v>-0.11</v>
@@ -2027,7 +2027,7 @@
         <v>0.68</v>
       </c>
       <c r="C120" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D120" t="n">
         <v>0.17</v>
@@ -2069,7 +2069,7 @@
         <v>0.06</v>
       </c>
       <c r="C123" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D123" t="n">
         <v>0.51</v>
@@ -2083,7 +2083,7 @@
         <v>-0.44</v>
       </c>
       <c r="C124" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="D124" t="n">
         <v>0.08</v>
@@ -2153,7 +2153,7 @@
         <v>0.85</v>
       </c>
       <c r="C129" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D129" t="n">
         <v>-0.05</v>
@@ -2167,7 +2167,7 @@
         <v>0.62</v>
       </c>
       <c r="C130" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D130" t="n">
         <v>0.48</v>
@@ -2181,7 +2181,7 @@
         <v>0.44</v>
       </c>
       <c r="C131" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D131" t="n">
         <v>0.32</v>
@@ -2195,7 +2195,7 @@
         <v>-0.53</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="D132" t="n">
         <v>-0.26</v>
@@ -2209,7 +2209,7 @@
         <v>-0.12</v>
       </c>
       <c r="C133" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D133" t="n">
         <v>0.29</v>
@@ -2251,7 +2251,7 @@
         <v>-0.06</v>
       </c>
       <c r="C136" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="D136" t="n">
         <v>0.45</v>
@@ -2265,7 +2265,7 @@
         <v>0.12</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.3</v>
+        <v>-0.32</v>
       </c>
       <c r="D137" t="n">
         <v>-0.54</v>
@@ -2335,7 +2335,7 @@
         <v>0.29</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="D142" t="n">
         <v>-0.02</v>
@@ -2363,7 +2363,7 @@
         <v>-0.5</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.37</v>
+        <v>-0.34</v>
       </c>
       <c r="D144" t="n">
         <v>-0.17</v>
@@ -2391,7 +2391,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="D146" t="n">
         <v>-0.32</v>
@@ -2405,7 +2405,7 @@
         <v>0.15</v>
       </c>
       <c r="C147" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="D147" t="n">
         <v>0.51</v>
@@ -2419,7 +2419,7 @@
         <v>-0.15</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="D148" t="n">
         <v>0.17</v>
@@ -2433,7 +2433,7 @@
         <v>0.59</v>
       </c>
       <c r="C149" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>0.35</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="D150" t="n">
         <v>-0.29</v>
@@ -2461,7 +2461,7 @@
         <v>-0.09</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="D151" t="n">
         <v>0.32</v>
@@ -2503,7 +2503,7 @@
         <v>-0.62</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D154" t="n">
         <v>-0.54</v>
@@ -2525,13 +2525,13 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.78</v>
+        <v>-0.79</v>
       </c>
       <c r="B156" t="n">
         <v>-0.53</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="D156" t="n">
         <v>-0.14</v>
@@ -2545,7 +2545,7 @@
         <v>0.76</v>
       </c>
       <c r="C157" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="D157" t="n">
         <v>0.63</v>
@@ -2573,7 +2573,7 @@
         <v>0.32</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="D159" t="n">
         <v>0.29</v>
@@ -2587,7 +2587,7 @@
         <v>0.32</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D160" t="n">
         <v>-0.17</v>
@@ -2601,7 +2601,7 @@
         <v>-0.68</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D161" t="n">
         <v>-0.08</v>
@@ -2629,7 +2629,7 @@
         <v>0.41</v>
       </c>
       <c r="C163" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D163" t="n">
         <v>0.54</v>
@@ -2643,7 +2643,7 @@
         <v>0.15</v>
       </c>
       <c r="C164" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D164" t="n">
         <v>-0.11</v>
@@ -2657,7 +2657,7 @@
         <v>0.68</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="D165" t="n">
         <v>-0.42</v>
@@ -2685,7 +2685,7 @@
         <v>0.09</v>
       </c>
       <c r="C167" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D167" t="n">
         <v>0.45</v>
@@ -2699,7 +2699,7 @@
         <v>-0.06</v>
       </c>
       <c r="C168" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="D168" t="n">
         <v>-0.02</v>
@@ -2713,7 +2713,7 @@
         <v>-0.74</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="D169" t="n">
         <v>-0.35</v>
@@ -2741,7 +2741,7 @@
         <v>-0.26</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="D171" t="n">
         <v>0.05</v>
@@ -2755,7 +2755,7 @@
         <v>0.12</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="D172" t="n">
         <v>0.66</v>
@@ -2769,7 +2769,7 @@
         <v>0.44</v>
       </c>
       <c r="C173" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D173" t="n">
         <v>0.05</v>
@@ -2783,7 +2783,7 @@
         <v>-0.24</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="D174" t="n">
         <v>-0.35</v>
@@ -2797,7 +2797,7 @@
         <v>-0.12</v>
       </c>
       <c r="C175" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="D175" t="n">
         <v>0.26</v>
@@ -2853,7 +2853,7 @@
         <v>-0.44</v>
       </c>
       <c r="C179" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D179" t="n">
         <v>-0.2</v>
@@ -2881,7 +2881,7 @@
         <v>0.18</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="D181" t="n">
         <v>0.2</v>
@@ -2909,7 +2909,7 @@
         <v>-0.5</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="D183" t="n">
         <v>-0.26</v>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.78</v>
+        <v>-0.79</v>
       </c>
       <c r="B185" t="n">
         <v>-0.82</v>
@@ -2951,7 +2951,7 @@
         <v>0.29</v>
       </c>
       <c r="C186" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="D186" t="n">
         <v>0.6899999999999999</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.34</v>
+        <v>-0.33</v>
       </c>
       <c r="B192" t="n">
         <v>-0.29</v>
@@ -3049,7 +3049,7 @@
         <v>0.03</v>
       </c>
       <c r="C193" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D193" t="n">
         <v>0.23</v>
@@ -3063,7 +3063,7 @@
         <v>-0.44</v>
       </c>
       <c r="C194" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D194" t="n">
         <v>-0.48</v>
@@ -3091,7 +3091,7 @@
         <v>0.29</v>
       </c>
       <c r="C196" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
         <v>0.38</v>
@@ -3105,7 +3105,7 @@
         <v>-0.21</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="D197" t="n">
         <v>0.08</v>
@@ -3119,7 +3119,7 @@
         <v>-0.29</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="D198" t="n">
         <v>0.02</v>
@@ -3133,7 +3133,7 @@
         <v>-0.09</v>
       </c>
       <c r="C199" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D199" t="n">
         <v>-0.75</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="B202" t="n">
         <v>-0.26</v>
@@ -3189,7 +3189,7 @@
         <v>0.59</v>
       </c>
       <c r="C203" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="D203" t="n">
         <v>0.48</v>
@@ -3231,7 +3231,7 @@
         <v>0.65</v>
       </c>
       <c r="C206" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="D206" t="n">
         <v>0.6</v>
@@ -3245,7 +3245,7 @@
         <v>0.71</v>
       </c>
       <c r="C207" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="D207" t="n">
         <v>0.54</v>
@@ -3301,7 +3301,7 @@
         <v>-0.09</v>
       </c>
       <c r="C211" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D211" t="n">
         <v>-0.17</v>
@@ -3315,7 +3315,7 @@
         <v>0.29</v>
       </c>
       <c r="C212" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D212" t="n">
         <v>0.38</v>
@@ -3329,7 +3329,7 @@
         <v>-0.24</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.13</v>
+        <v>-0.11</v>
       </c>
       <c r="D213" t="n">
         <v>0.35</v>
@@ -3343,7 +3343,7 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D214" t="n">
         <v>0.2</v>
@@ -3357,7 +3357,7 @@
         <v>0.59</v>
       </c>
       <c r="C215" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="D215" t="n">
         <v>0.54</v>
@@ -3371,7 +3371,7 @@
         <v>-0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="D216" t="n">
         <v>-0.02</v>
@@ -3455,7 +3455,7 @@
         <v>0.38</v>
       </c>
       <c r="C222" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="D222" t="n">
         <v>0.51</v>
@@ -3469,7 +3469,7 @@
         <v>-0.5</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="D223" t="n">
         <v>-0.26</v>
@@ -3483,7 +3483,7 @@
         <v>-0.82</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.45</v>
+        <v>-0.44</v>
       </c>
       <c r="D224" t="n">
         <v>-0.42</v>
